--- a/中文示例.xlsx
+++ b/中文示例.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>方剂名称</t>
+  </si>
+  <si>
+    <t>草药名称</t>
+  </si>
   <si>
     <t>方剂名称1</t>
   </si>
@@ -970,13 +976,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.7477477477477" customWidth="1"/>
     <col min="2" max="2" width="81.2252252252252" customWidth="1"/>
@@ -1006,6 +1012,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
